--- a/Crawling/crawling_data/day_genie/day_genie_20220303.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220303.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
   <si>
     <t>날짜</t>
   </si>
@@ -46,8 +46,7 @@
     <t>취중고백</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>다정히 내 이름을 부르면</t>
@@ -269,8 +268,7 @@
     <t>Christmas Tree</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>불협화음 (Feat. AKMU) (Prod. by GRAY)</t>
@@ -544,9 +542,6 @@
   </si>
   <si>
     <t>INVU - The 3rd Album</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
@@ -1180,7 +1175,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1197,7 +1192,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1214,7 +1209,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1231,7 +1226,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1248,7 +1243,7 @@
         <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1282,7 +1277,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1316,7 +1311,7 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1350,7 +1345,7 @@
         <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1418,7 +1413,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1435,7 +1430,7 @@
         <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1452,7 +1447,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1469,7 +1464,7 @@
         <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1503,7 +1498,7 @@
         <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1520,7 +1515,7 @@
         <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1589,7 +1584,7 @@
         <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1606,7 +1601,7 @@
         <v>118</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1640,7 +1635,7 @@
         <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1657,7 +1652,7 @@
         <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1674,7 +1669,7 @@
         <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1708,7 +1703,7 @@
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1725,7 +1720,7 @@
         <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1759,7 +1754,7 @@
         <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1776,7 +1771,7 @@
         <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1810,7 +1805,7 @@
         <v>123</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1827,7 +1822,7 @@
         <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1844,7 +1839,7 @@
         <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1861,7 +1856,7 @@
         <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1878,7 +1873,7 @@
         <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1895,7 +1890,7 @@
         <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1929,7 +1924,7 @@
         <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1980,7 +1975,7 @@
         <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2014,7 +2009,7 @@
         <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2031,7 +2026,7 @@
         <v>145</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2048,7 +2043,7 @@
         <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2065,7 +2060,7 @@
         <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2082,7 +2077,7 @@
         <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2099,7 +2094,7 @@
         <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2116,7 +2111,7 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2133,7 +2128,7 @@
         <v>113</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2150,7 +2145,7 @@
         <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2167,7 +2162,7 @@
         <v>150</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2184,7 +2179,7 @@
         <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2201,7 +2196,7 @@
         <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2218,7 +2213,7 @@
         <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2252,7 +2247,7 @@
         <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2269,7 +2264,7 @@
         <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2286,7 +2281,7 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2303,7 +2298,7 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2320,7 +2315,7 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2388,7 +2383,7 @@
         <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2422,7 +2417,7 @@
         <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2439,7 +2434,7 @@
         <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2456,7 +2451,7 @@
         <v>161</v>
       </c>
       <c r="E81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2473,7 +2468,7 @@
         <v>121</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2541,7 +2536,7 @@
         <v>165</v>
       </c>
       <c r="E86" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2558,7 +2553,7 @@
         <v>118</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2575,7 +2570,7 @@
         <v>166</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2592,7 +2587,7 @@
         <v>167</v>
       </c>
       <c r="E89" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2609,7 +2604,7 @@
         <v>168</v>
       </c>
       <c r="E90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2643,7 +2638,7 @@
         <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2711,7 +2706,7 @@
         <v>173</v>
       </c>
       <c r="E96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2728,7 +2723,7 @@
         <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2745,7 +2740,7 @@
         <v>174</v>
       </c>
       <c r="E98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:5">
